--- a/USASwimming/Times For Luke Suter.xlsx
+++ b/USASwimming/Times For Luke Suter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="66">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,21 @@
     <t>"Slower than B"</t>
   </si>
   <si>
+    <t>2019 CT WRAT Maura Marden Free</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/16/2019</t>
+  </si>
+  <si>
     <t>2019 CT WYW Winter Qualifier R</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>1/18/2019</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
     <t>2/4/2018</t>
   </si>
   <si>
+    <t>200 FR</t>
+  </si>
+  <si>
     <t>50 BK</t>
   </si>
   <si>
@@ -205,9 +214,6 @@
   </si>
   <si>
     <t>5/19/2018</t>
-  </si>
-  <si>
-    <t>200 FR</t>
   </si>
   <si>
     <t>2017 CT 12&amp;U LC MJCC Regional Champs</t>
@@ -574,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -633,16 +639,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500490856481484</v>
+        <v>33.500449537037035</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500490856481</v>
+        <v>36557.500449537038</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -665,16 +671,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.50050509259259</v>
+        <v>33.500490856481484</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.50050509259</v>
+        <v>36557.500490856481</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -697,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500508796296295</v>
+        <v>33.50050509259259</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500508796293</v>
+        <v>36557.50050509259</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -726,51 +732,51 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.500508796296295</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36557.500508796293</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
-        <v>33.501105439814815</v>
-      </c>
-      <c r="C5" s="3">
-        <v>33.501105439814815</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
-        <v>33.50113425925926</v>
+        <v>33.501105439814815</v>
       </c>
       <c r="C6" s="3">
-        <v>33.50113425925926</v>
+        <v>33.501105439814815</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -790,19 +796,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
-        <v>33.501158449074076</v>
+        <v>33.50113425925926</v>
       </c>
       <c r="C7" s="3">
-        <v>33.501158449074076</v>
+        <v>33.50113425925926</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -822,25 +828,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>33.501195370370368</v>
+        <v>33.501158449074076</v>
       </c>
       <c r="C8" s="3">
-        <v>33.501195370370368</v>
+        <v>33.501158449074076</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -849,30 +855,30 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2">
-        <v>33.500563888888891</v>
-      </c>
-      <c r="C9" s="2">
-        <v>36557.500563888891</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>33.501195370370368</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33.501195370370368</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -881,30 +887,30 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2">
-        <v>33.500595601851849</v>
-      </c>
-      <c r="C10" s="2">
-        <v>36557.50059560185</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>33.502312962962961</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33.502312962962961</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -913,30 +919,30 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500601157407409</v>
+        <v>33.500563888888891</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500601157408</v>
+        <v>36557.500563888891</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -945,62 +951,62 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>33.500595601851849</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36557.50059560185</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="2">
-        <v>33.500605324074073</v>
-      </c>
-      <c r="C12" s="2">
-        <v>36557.500605324072</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500652546296294</v>
+        <v>33.500601157407409</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500652546296</v>
+        <v>36557.500601157408</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1009,30 +1015,30 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3">
-        <v>33.501312962962963</v>
-      </c>
-      <c r="C14" s="3">
-        <v>33.501312962962963</v>
+      <c r="B14" s="2">
+        <v>33.500605324074073</v>
+      </c>
+      <c r="C14" s="2">
+        <v>36557.500605324072</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1041,24 +1047,24 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500664004629627</v>
+        <v>33.500652546296294</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500664004627</v>
+        <v>36557.500652546296</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1073,30 +1079,30 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501312962962963</v>
       </c>
       <c r="C16" s="3">
-        <v>33.500701736111111</v>
+        <v>33.501312962962963</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1105,30 +1111,30 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3">
-        <v>33.500762847222219</v>
-      </c>
-      <c r="C17" s="3">
-        <v>33.500762847222219</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>33.500664004629627</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36557.500664004627</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1137,18 +1143,18 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
-        <v>33.501541087962963</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="C18" s="3">
-        <v>33.501541087962963</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1160,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1169,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,22 +1183,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>33.501346990740743</v>
+        <v>33.500762847222219</v>
       </c>
       <c r="C19" s="3">
-        <v>33.501346990740743</v>
+        <v>33.500762847222219</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1201,30 +1207,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>33.50050208333333</v>
-      </c>
-      <c r="C20" s="2">
-        <v>36557.500502083334</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>33.501541087962963</v>
+      </c>
+      <c r="C20" s="3">
+        <v>33.501541087962963</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1233,30 +1239,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2">
-        <v>33.500533680555556</v>
-      </c>
-      <c r="C21" s="2">
-        <v>36557.500533680555</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="3">
+        <v>33.501346990740743</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33.501346990740743</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1265,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,31 +1279,31 @@
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>33.500551967592592</v>
+        <v>33.50050208333333</v>
       </c>
       <c r="C22" s="2">
-        <v>36557.500551967591</v>
+        <v>36557.500502083334</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>41</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,31 +1311,31 @@
         <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>33.500558217592591</v>
+        <v>33.500533680555556</v>
       </c>
       <c r="C23" s="2">
-        <v>36557.500558217595</v>
+        <v>36557.500533680555</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
         <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,31 +1343,31 @@
         <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>33.500567361111109</v>
+        <v>33.500551967592592</v>
       </c>
       <c r="C24" s="2">
-        <v>36557.500567361109</v>
+        <v>36557.500551967591</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
         <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,31 +1375,31 @@
         <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>33.50057002314815</v>
+        <v>33.500558217592591</v>
       </c>
       <c r="C25" s="2">
-        <v>36557.500570023149</v>
+        <v>36557.500558217595</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,31 +1407,31 @@
         <v>10</v>
       </c>
       <c r="B26" s="2">
-        <v>33.500571064814814</v>
+        <v>33.500567361111109</v>
       </c>
       <c r="C26" s="2">
-        <v>36557.500571064818</v>
+        <v>36557.500567361109</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
         <v>49</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,31 +1439,31 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>33.500602314814813</v>
+        <v>33.50057002314815</v>
       </c>
       <c r="C27" s="2">
-        <v>36557.500602314816</v>
+        <v>36557.500570023149</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
         <v>51</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,86 +1471,86 @@
         <v>10</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500602777777779</v>
+        <v>33.500571064814814</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500602777778</v>
+        <v>36557.500571064818</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
         <v>53</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
-        <v>33.500767361111109</v>
-      </c>
-      <c r="C29" s="3">
-        <v>33.500767361111109</v>
+      <c r="B29" s="2">
+        <v>33.500602314814813</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36557.500602314816</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
         <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3">
-        <v>33.5012244212963</v>
-      </c>
-      <c r="C30" s="3">
-        <v>33.5012244212963</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33.500602777777779</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36557.500602777778</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1553,30 +1559,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501246990740739</v>
+        <v>33.500767361111109</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501246990740739</v>
+        <v>33.500767361111109</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1585,30 +1591,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501264814814817</v>
+        <v>33.5012244212963</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501264814814817</v>
+        <v>33.5012244212963</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1617,30 +1623,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501280092592594</v>
+        <v>33.501246990740739</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501280092592594</v>
+        <v>33.501246990740739</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1649,30 +1655,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501314004629627</v>
+        <v>33.501264814814817</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501314004629627</v>
+        <v>33.501264814814817</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1681,30 +1687,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3">
-        <v>33.50268622685185</v>
+        <v>33.501280092592594</v>
       </c>
       <c r="C35" s="3">
-        <v>33.50268622685185</v>
+        <v>33.501280092592594</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1713,30 +1719,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2">
-        <v>33.500614467592591</v>
-      </c>
-      <c r="C36" s="2">
-        <v>36557.500614467594</v>
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>33.501314004629627</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33.501314004629627</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1745,30 +1751,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2">
-        <v>33.500636689814812</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36557.500636689816</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
+        <v>33.50268622685185</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33.50268622685185</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1777,30 +1783,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2">
-        <v>33.500645601851851</v>
+        <v>33.500614467592591</v>
       </c>
       <c r="C38" s="2">
-        <v>36557.500645601853</v>
+        <v>36557.500614467594</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1809,30 +1815,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2">
-        <v>33.500659027777779</v>
+        <v>33.500636689814812</v>
       </c>
       <c r="C39" s="2">
-        <v>36557.500659027777</v>
+        <v>36557.500636689816</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1841,30 +1847,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2">
-        <v>33.500671527777776</v>
+        <v>33.500645601851851</v>
       </c>
       <c r="C40" s="2">
-        <v>36557.500671527778</v>
+        <v>36557.500645601853</v>
       </c>
       <c r="D40">
         <v>9</v>
       </c>
       <c r="E40">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1873,30 +1879,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="3">
-        <v>33.500701157407406</v>
-      </c>
-      <c r="C41" s="3">
-        <v>33.500701157407406</v>
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>33.500659027777779</v>
+      </c>
+      <c r="C41" s="2">
+        <v>36557.500659027777</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -1905,30 +1911,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="3">
-        <v>33.500723379629626</v>
-      </c>
-      <c r="C42" s="3">
-        <v>33.500723379629626</v>
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>33.500671527777776</v>
+      </c>
+      <c r="C42" s="2">
+        <v>36557.500671527778</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -1937,30 +1943,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3">
-        <v>33.500777546296298</v>
+        <v>33.500701157407406</v>
       </c>
       <c r="C43" s="3">
-        <v>33.500777546296298</v>
+        <v>33.500701157407406</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -1969,21 +1975,21 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B44" s="3">
-        <v>33.500801851851854</v>
+        <v>33.500723379629626</v>
       </c>
       <c r="C44" s="3">
-        <v>33.500801851851854</v>
+        <v>33.500723379629626</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1992,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2009,22 +2015,22 @@
         <v>31</v>
       </c>
       <c r="B45" s="3">
-        <v>33.50135486111111</v>
+        <v>33.500777546296298</v>
       </c>
       <c r="C45" s="3">
-        <v>33.50135486111111</v>
+        <v>33.500777546296298</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2033,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2041,22 +2047,22 @@
         <v>31</v>
       </c>
       <c r="B46" s="3">
-        <v>33.501355324074076</v>
+        <v>33.500801851851854</v>
       </c>
       <c r="C46" s="3">
-        <v>33.501355324074076</v>
+        <v>33.500801851851854</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2065,31 +2071,31 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B47" s="3">
-        <v>33.501465277777775</v>
+        <v>33.50135486111111</v>
       </c>
       <c r="C47" s="3">
-        <v>33.501465277777775</v>
+        <v>33.50135486111111</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47">
+        <v>166</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
         <v>52</v>
       </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
       <c r="H47" t="s">
         <v>13</v>
       </c>
@@ -2097,30 +2103,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" s="3">
-        <v>33.501469560185186</v>
+        <v>33.501355324074076</v>
       </c>
       <c r="C48" s="3">
-        <v>33.501469560185186</v>
+        <v>33.501355324074076</v>
       </c>
       <c r="D48">
         <v>9</v>
       </c>
       <c r="E48">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2129,30 +2135,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="2">
-        <v>33.500670601851851</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36557.500670601854</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="3">
+        <v>33.501465277777775</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.501465277777775</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2161,30 +2167,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B50" s="3">
-        <v>33.500695138888887</v>
+        <v>33.501469560185186</v>
       </c>
       <c r="C50" s="3">
-        <v>33.500695138888887</v>
+        <v>33.501469560185186</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2193,30 +2199,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="3">
-        <v>33.500711342592595</v>
-      </c>
-      <c r="C51" s="3">
-        <v>33.500711342592595</v>
+        <v>35</v>
+      </c>
+      <c r="B51" s="2">
+        <v>33.500670601851851</v>
+      </c>
+      <c r="C51" s="2">
+        <v>36557.500670601854</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2225,30 +2231,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3">
-        <v>33.500769328703704</v>
+        <v>33.500695138888887</v>
       </c>
       <c r="C52" s="3">
-        <v>33.500769328703704</v>
+        <v>33.500695138888887</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2257,30 +2263,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3">
-        <v>33.500814814814817</v>
+        <v>33.500711342592595</v>
       </c>
       <c r="C53" s="3">
-        <v>33.500814814814817</v>
+        <v>33.500711342592595</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2289,30 +2295,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3">
-        <v>33.500898263888892</v>
+        <v>33.500769328703704</v>
       </c>
       <c r="C54" s="3">
-        <v>33.500898263888892</v>
+        <v>33.500769328703704</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2321,21 +2327,21 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3">
-        <v>33.50090902777778</v>
+        <v>33.500814814814817</v>
       </c>
       <c r="C55" s="3">
-        <v>33.50090902777778</v>
+        <v>33.500814814814817</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2344,7 +2350,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2353,18 +2359,18 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3">
-        <v>33.500920370370373</v>
+        <v>33.500898263888892</v>
       </c>
       <c r="C56" s="3">
-        <v>33.500920370370373</v>
+        <v>33.500898263888892</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -2376,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2385,30 +2391,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3">
-        <v>33.501560763888889</v>
+        <v>33.50090902777778</v>
       </c>
       <c r="C57" s="3">
-        <v>33.501560763888889</v>
+        <v>33.50090902777778</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2417,30 +2423,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3">
-        <v>33.501591319444444</v>
+        <v>33.500920370370373</v>
       </c>
       <c r="C58" s="3">
-        <v>33.501591319444444</v>
+        <v>33.500920370370373</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2449,30 +2455,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B59" s="3">
-        <v>33.501654282407408</v>
+        <v>33.501560763888889</v>
       </c>
       <c r="C59" s="3">
-        <v>33.501654282407408</v>
+        <v>33.501560763888889</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2481,39 +2487,103 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B60" s="3">
+        <v>33.501591319444444</v>
+      </c>
+      <c r="C60" s="3">
+        <v>33.501591319444444</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="3">
+        <v>33.501654282407408</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33.501654282407408</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3">
         <v>33.501654629629627</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C62" s="3">
         <v>33.501654629629627</v>
       </c>
-      <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="E60">
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
         <v>77</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>50</v>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Luke Suter.xlsx
+++ b/USASwimming/Times For Luke Suter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="68">
   <si>
     <t>Event</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>11/16/2019</t>
+  </si>
+  <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
   </si>
   <si>
     <t>2019 CT WYW Winter Qualifier R</t>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -671,16 +677,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.500490856481484</v>
+        <v>33.50045300925926</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500490856481</v>
+        <v>36557.500453009263</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -703,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.50050509259259</v>
+        <v>33.500490856481484</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.50050509259</v>
+        <v>36557.500490856481</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -735,16 +741,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500508796296295</v>
+        <v>33.50050509259259</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500508796293</v>
+        <v>36557.50050509259</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -764,51 +770,51 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33.500508796296295</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36557.500508796293</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3">
-        <v>33.501105439814815</v>
-      </c>
-      <c r="C6" s="3">
-        <v>33.501105439814815</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>33.50113425925926</v>
+        <v>33.501105439814815</v>
       </c>
       <c r="C7" s="3">
-        <v>33.50113425925926</v>
+        <v>33.501105439814815</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -828,19 +834,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>33.501158449074076</v>
+        <v>33.50113425925926</v>
       </c>
       <c r="C8" s="3">
-        <v>33.501158449074076</v>
+        <v>33.50113425925926</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -860,25 +866,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>33.501195370370368</v>
+        <v>33.501158449074076</v>
       </c>
       <c r="C9" s="3">
-        <v>33.501195370370368</v>
+        <v>33.501158449074076</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -887,30 +893,30 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>33.502312962962961</v>
+        <v>33.501195370370368</v>
       </c>
       <c r="C10" s="3">
-        <v>33.502312962962961</v>
+        <v>33.501195370370368</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -919,30 +925,30 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2">
-        <v>33.500563888888891</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36557.500563888891</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>33.502312962962961</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.502312962962961</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -951,30 +957,30 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500595601851849</v>
+        <v>33.500563888888891</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.50059560185</v>
+        <v>36557.500563888891</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -983,30 +989,30 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500601157407409</v>
+        <v>33.500595601851849</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500601157408</v>
+        <v>36557.50059560185</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1015,30 +1021,30 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500605324074073</v>
+        <v>33.500601157407409</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500605324072</v>
+        <v>36557.500601157408</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1047,30 +1053,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500652546296294</v>
+        <v>33.500605324074073</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500652546296</v>
+        <v>36557.500605324072</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1079,30 +1085,30 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>33.501312962962963</v>
-      </c>
-      <c r="C16" s="3">
-        <v>33.501312962962963</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>33.500652546296294</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36557.500652546296</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1111,30 +1117,30 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2">
-        <v>33.500664004629627</v>
-      </c>
-      <c r="C17" s="2">
-        <v>36557.500664004627</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>33.501312962962963</v>
+      </c>
+      <c r="C17" s="3">
+        <v>33.501312962962963</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1143,30 +1149,30 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>33.500701736111111</v>
-      </c>
-      <c r="C18" s="3">
-        <v>33.500701736111111</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>33.500609143518517</v>
+      </c>
+      <c r="C18" s="2">
+        <v>36557.500609143521</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1175,30 +1181,30 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>33.500762847222219</v>
-      </c>
-      <c r="C19" s="3">
-        <v>33.500762847222219</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.500664004629627</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36557.500664004627</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1207,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,10 +1221,10 @@
         <v>37</v>
       </c>
       <c r="B20" s="3">
-        <v>33.501541087962963</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="C20" s="3">
-        <v>33.501541087962963</v>
+        <v>33.500701736111111</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1230,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1239,30 +1245,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
-        <v>33.501346990740743</v>
+        <v>33.500762847222219</v>
       </c>
       <c r="C21" s="3">
-        <v>33.501346990740743</v>
+        <v>33.500762847222219</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1271,30 +1277,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
-        <v>33.50050208333333</v>
-      </c>
-      <c r="C22" s="2">
-        <v>36557.500502083334</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>33.501541087962963</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33.501541087962963</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1303,30 +1309,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>33.500533680555556</v>
-      </c>
-      <c r="C23" s="2">
-        <v>36557.500533680555</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>33.501266782407406</v>
+      </c>
+      <c r="C23" s="3">
+        <v>33.501266782407406</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1335,30 +1341,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2">
-        <v>33.500551967592592</v>
-      </c>
-      <c r="C24" s="2">
-        <v>36557.500551967591</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>33.501346990740743</v>
+      </c>
+      <c r="C24" s="3">
+        <v>33.501346990740743</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1367,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1375,22 +1381,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>33.500558217592591</v>
+        <v>33.50050208333333</v>
       </c>
       <c r="C25" s="2">
-        <v>36557.500558217595</v>
+        <v>36557.500502083334</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1399,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1407,22 +1413,22 @@
         <v>10</v>
       </c>
       <c r="B26" s="2">
-        <v>33.500567361111109</v>
+        <v>33.500533680555556</v>
       </c>
       <c r="C26" s="2">
-        <v>36557.500567361109</v>
+        <v>36557.500533680555</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1431,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,22 +1445,22 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>33.50057002314815</v>
+        <v>33.500551967592592</v>
       </c>
       <c r="C27" s="2">
-        <v>36557.500570023149</v>
+        <v>36557.500551967591</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1463,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1471,22 +1477,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500571064814814</v>
+        <v>33.500558217592591</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500571064818</v>
+        <v>36557.500558217595</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1495,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1503,22 +1509,22 @@
         <v>10</v>
       </c>
       <c r="B29" s="2">
-        <v>33.500602314814813</v>
+        <v>33.500567361111109</v>
       </c>
       <c r="C29" s="2">
-        <v>36557.500602314816</v>
+        <v>36557.500567361109</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1527,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,22 +1541,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="2">
-        <v>33.500602777777779</v>
+        <v>33.50057002314815</v>
       </c>
       <c r="C30" s="2">
-        <v>36557.500602777778</v>
+        <v>36557.500570023149</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1559,30 +1565,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3">
-        <v>33.500767361111109</v>
-      </c>
-      <c r="C31" s="3">
-        <v>33.500767361111109</v>
+      <c r="B31" s="2">
+        <v>33.500571064814814</v>
+      </c>
+      <c r="C31" s="2">
+        <v>36557.500571064818</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1591,30 +1597,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3">
-        <v>33.5012244212963</v>
-      </c>
-      <c r="C32" s="3">
-        <v>33.5012244212963</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33.500602314814813</v>
+      </c>
+      <c r="C32" s="2">
+        <v>36557.500602314816</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1623,30 +1629,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3">
-        <v>33.501246990740739</v>
-      </c>
-      <c r="C33" s="3">
-        <v>33.501246990740739</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>33.500602777777779</v>
+      </c>
+      <c r="C33" s="2">
+        <v>36557.500602777778</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1655,30 +1661,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501264814814817</v>
+        <v>33.500767361111109</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501264814814817</v>
+        <v>33.500767361111109</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1692,25 +1698,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501280092592594</v>
+        <v>33.5012244212963</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501280092592594</v>
+        <v>33.5012244212963</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1719,30 +1725,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501314004629627</v>
+        <v>33.501246990740739</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501314004629627</v>
+        <v>33.501246990740739</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1751,30 +1757,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3">
-        <v>33.50268622685185</v>
+        <v>33.501264814814817</v>
       </c>
       <c r="C37" s="3">
-        <v>33.50268622685185</v>
+        <v>33.501264814814817</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1783,30 +1789,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2">
-        <v>33.500614467592591</v>
-      </c>
-      <c r="C38" s="2">
-        <v>36557.500614467594</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>33.501280092592594</v>
+      </c>
+      <c r="C38" s="3">
+        <v>33.501280092592594</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1815,30 +1821,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2">
-        <v>33.500636689814812</v>
-      </c>
-      <c r="C39" s="2">
-        <v>36557.500636689816</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="3">
+        <v>33.501314004629627</v>
+      </c>
+      <c r="C39" s="3">
+        <v>33.501314004629627</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1847,30 +1853,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2">
-        <v>33.500645601851851</v>
-      </c>
-      <c r="C40" s="2">
-        <v>36557.500645601853</v>
+        <v>32</v>
+      </c>
+      <c r="B40" s="3">
+        <v>33.50268622685185</v>
+      </c>
+      <c r="C40" s="3">
+        <v>33.50268622685185</v>
       </c>
       <c r="D40">
         <v>9</v>
       </c>
       <c r="E40">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1879,30 +1885,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2">
-        <v>33.500659027777779</v>
+        <v>33.500614467592591</v>
       </c>
       <c r="C41" s="2">
-        <v>36557.500659027777</v>
+        <v>36557.500614467594</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -1911,30 +1917,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2">
-        <v>33.500671527777776</v>
+        <v>33.500636689814812</v>
       </c>
       <c r="C42" s="2">
-        <v>36557.500671527778</v>
+        <v>36557.500636689816</v>
       </c>
       <c r="D42">
         <v>9</v>
       </c>
       <c r="E42">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -1943,30 +1949,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="3">
-        <v>33.500701157407406</v>
-      </c>
-      <c r="C43" s="3">
-        <v>33.500701157407406</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>33.500645601851851</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36557.500645601853</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -1975,30 +1981,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="3">
-        <v>33.500723379629626</v>
-      </c>
-      <c r="C44" s="3">
-        <v>33.500723379629626</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="2">
+        <v>33.500659027777779</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36557.500659027777</v>
       </c>
       <c r="D44">
         <v>8</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2012,25 +2018,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="3">
-        <v>33.500777546296298</v>
-      </c>
-      <c r="C45" s="3">
-        <v>33.500777546296298</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="2">
+        <v>33.500671527777776</v>
+      </c>
+      <c r="C45" s="2">
+        <v>36557.500671527778</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2039,30 +2045,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B46" s="3">
-        <v>33.500801851851854</v>
+        <v>33.500701157407406</v>
       </c>
       <c r="C46" s="3">
-        <v>33.500801851851854</v>
+        <v>33.500701157407406</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2071,30 +2077,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="3">
-        <v>33.50135486111111</v>
+        <v>33.500723379629626</v>
       </c>
       <c r="C47" s="3">
-        <v>33.50135486111111</v>
+        <v>33.500723379629626</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2103,30 +2109,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3">
-        <v>33.501355324074076</v>
+        <v>33.500777546296298</v>
       </c>
       <c r="C48" s="3">
-        <v>33.501355324074076</v>
+        <v>33.500777546296298</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2135,30 +2141,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3">
-        <v>33.501465277777775</v>
+        <v>33.500801851851854</v>
       </c>
       <c r="C49" s="3">
-        <v>33.501465277777775</v>
+        <v>33.500801851851854</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2167,30 +2173,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3">
-        <v>33.501469560185186</v>
+        <v>33.50135486111111</v>
       </c>
       <c r="C50" s="3">
-        <v>33.501469560185186</v>
+        <v>33.50135486111111</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2199,30 +2205,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33.500670601851851</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.500670601854</v>
+        <v>36</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.501355324074076</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.501355324074076</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2231,30 +2237,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3">
-        <v>33.500695138888887</v>
+        <v>33.501465277777775</v>
       </c>
       <c r="C52" s="3">
-        <v>33.500695138888887</v>
+        <v>33.501465277777775</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2263,30 +2269,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="3">
-        <v>33.500711342592595</v>
+        <v>33.501469560185186</v>
       </c>
       <c r="C53" s="3">
-        <v>33.500711342592595</v>
+        <v>33.501469560185186</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2295,30 +2301,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="3">
-        <v>33.500769328703704</v>
-      </c>
-      <c r="C54" s="3">
-        <v>33.500769328703704</v>
+        <v>37</v>
+      </c>
+      <c r="B54" s="2">
+        <v>33.500670601851851</v>
+      </c>
+      <c r="C54" s="2">
+        <v>36557.500670601854</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2327,30 +2333,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3">
-        <v>33.500814814814817</v>
+        <v>33.500695138888887</v>
       </c>
       <c r="C55" s="3">
-        <v>33.500814814814817</v>
+        <v>33.500695138888887</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2359,30 +2365,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B56" s="3">
-        <v>33.500898263888892</v>
+        <v>33.500711342592595</v>
       </c>
       <c r="C56" s="3">
-        <v>33.500898263888892</v>
+        <v>33.500711342592595</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2391,30 +2397,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B57" s="3">
-        <v>33.50090902777778</v>
+        <v>33.500769328703704</v>
       </c>
       <c r="C57" s="3">
-        <v>33.50090902777778</v>
+        <v>33.500769328703704</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2423,21 +2429,21 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B58" s="3">
-        <v>33.500920370370373</v>
+        <v>33.500814814814817</v>
       </c>
       <c r="C58" s="3">
-        <v>33.500920370370373</v>
+        <v>33.500814814814817</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2463,22 +2469,22 @@
         <v>37</v>
       </c>
       <c r="B59" s="3">
-        <v>33.501560763888889</v>
+        <v>33.500898263888892</v>
       </c>
       <c r="C59" s="3">
-        <v>33.501560763888889</v>
+        <v>33.500898263888892</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2487,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2495,22 +2501,22 @@
         <v>37</v>
       </c>
       <c r="B60" s="3">
-        <v>33.501591319444444</v>
+        <v>33.50090902777778</v>
       </c>
       <c r="C60" s="3">
-        <v>33.501591319444444</v>
+        <v>33.50090902777778</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2519,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2527,22 +2533,22 @@
         <v>37</v>
       </c>
       <c r="B61" s="3">
-        <v>33.501654282407408</v>
+        <v>33.500920370370373</v>
       </c>
       <c r="C61" s="3">
-        <v>33.501654282407408</v>
+        <v>33.500920370370373</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2551,24 +2557,24 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B62" s="3">
-        <v>33.501654629629627</v>
+        <v>33.501560763888889</v>
       </c>
       <c r="C62" s="3">
-        <v>33.501654629629627</v>
+        <v>33.501560763888889</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2583,7 +2589,103 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33.501591319444444</v>
+      </c>
+      <c r="C63" s="3">
+        <v>33.501591319444444</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="3">
+        <v>33.501654282407408</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.501654282407408</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="3">
+        <v>33.501654629629627</v>
+      </c>
+      <c r="C65" s="3">
+        <v>33.501654629629627</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>77</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
